--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1857990.918881002</v>
+        <v>1962170.553332074</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283165</v>
       </c>
     </row>
     <row r="9">
@@ -662,7 +664,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -674,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>150.9601371840612</v>
       </c>
       <c r="Y2" t="n">
-        <v>158.035960307418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682479</v>
+        <v>18.817218682477</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -832,10 +834,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004729</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -877,13 +879,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>110.6977437732699</v>
+        <v>143.5591234901491</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>165.0973824885525</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>334.4146100199745</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>100.2457785538845</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>46.94197271911752</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1104,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>374.174726592568</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,19 +1183,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>347.3335962273651</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>34.24200141920641</v>
       </c>
       <c r="X10" t="n">
-        <v>93.74486828112514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560543</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>0.8253826161906772</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>21.6971857188523</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>188.095826133329</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1831,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2059,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>167.8792891424494</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>19.67525987919283</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2084,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2239,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>46.35517081455656</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>93.62264337260652</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2302,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>140.7215037338434</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>171.697189621454</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2618,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -2719,19 +2721,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>98.99704524588256</v>
+        <v>111.3213230702132</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016411</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2776,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>1.799772605716619</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,19 +3006,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>185.0663491738964</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520872</v>
       </c>
     </row>
     <row r="32">
@@ -3026,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="33">
@@ -3193,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>99.9742741983392</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3250,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>150.8783572808979</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3263,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3332,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="36">
@@ -3424,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3487,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>187.1118995475103</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881311</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3667,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>19.91555826190716</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3709,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>41.55695577161238</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,7 +3897,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
@@ -3907,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462163</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>31.26260713377474</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>66.85274231757869</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4138,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>19.91555826189108</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>63.84155641259345</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927146</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927146</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218345</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136267</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410104</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.784676410104</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="W2" t="n">
-        <v>2609.016021139989</v>
+        <v>2884.252265792694</v>
       </c>
       <c r="X2" t="n">
-        <v>2235.55026287891</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
-        <v>2075.917979740103</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811102</v>
+        <v>1702.096133556937</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999832</v>
+        <v>1527.64310427581</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387319</v>
+        <v>1378.708694614559</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332764</v>
+        <v>1219.471239609103</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601614</v>
+        <v>1072.936681635988</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927795</v>
+        <v>936.5735814686066</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064709</v>
+        <v>846.0716871064741</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218345</v>
+        <v>827.0643955080125</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228009</v>
+        <v>920.7416649986299</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031482</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>1525.704024291642</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992585</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.91239341064</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886743</v>
+        <v>3167.96426396257</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533343</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201685</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695165</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297194</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507436</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199867</v>
+        <v>2540.160626275694</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471665</v>
+        <v>2285.923269547492</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266132</v>
+        <v>2078.071769341959</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577005</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>478.9911633238872</v>
+        <v>1731.085250062422</v>
       </c>
       <c r="C4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218345</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.6347488791191</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764917</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760409</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935979</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242374</v>
+        <v>2822.32286476305</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368017</v>
+        <v>2533.219997888694</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621305</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="W4" t="n">
-        <v>590.80706612517</v>
+        <v>2278.535509682807</v>
       </c>
       <c r="X4" t="n">
-        <v>478.9911633238872</v>
+        <v>2133.526294036192</v>
       </c>
       <c r="Y4" t="n">
-        <v>478.9911633238872</v>
+        <v>1912.733714892662</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.11348746897</v>
+        <v>1767.87852028569</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.150970528558</v>
+        <v>1398.916003345278</v>
       </c>
       <c r="D5" t="n">
         <v>1232.150970528558</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2884.252265792696</v>
       </c>
       <c r="W5" t="n">
-        <v>2325.505862906803</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>1987.713327533092</v>
+        <v>2158.017852261502</v>
       </c>
       <c r="Y5" t="n">
-        <v>1987.713327533092</v>
+        <v>1767.87852028569</v>
       </c>
     </row>
     <row r="6">
@@ -4635,10 +4637,10 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,19 +4649,19 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>874.0013006945865</v>
+        <v>2033.047668051139</v>
       </c>
       <c r="C7" t="n">
-        <v>705.0651177666796</v>
+        <v>1864.111485123232</v>
       </c>
       <c r="D7" t="n">
-        <v>554.9484783543438</v>
+        <v>1713.994845710896</v>
       </c>
       <c r="E7" t="n">
-        <v>407.0353847719507</v>
+        <v>1566.081752128503</v>
       </c>
       <c r="F7" t="n">
-        <v>260.1454372740403</v>
+        <v>1566.081752128503</v>
       </c>
       <c r="G7" t="n">
-        <v>260.1454372740403</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="H7" t="n">
-        <v>113.9282504918981</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952862</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399798</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348674</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.49300379717</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396719</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102584</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022997</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456657</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>3235.775364366699</v>
       </c>
       <c r="T7" t="n">
-        <v>1645.778206672847</v>
+        <v>3014.008748936225</v>
       </c>
       <c r="U7" t="n">
-        <v>1356.675339798491</v>
+        <v>2724.905882061869</v>
       </c>
       <c r="V7" t="n">
-        <v>1101.990851592604</v>
+        <v>2724.905882061869</v>
       </c>
       <c r="W7" t="n">
-        <v>1101.990851592604</v>
+        <v>2435.488712024908</v>
       </c>
       <c r="X7" t="n">
-        <v>874.0013006945865</v>
+        <v>2435.488712024908</v>
       </c>
       <c r="Y7" t="n">
-        <v>874.0013006945865</v>
+        <v>2214.696132881378</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.067756754392</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1610.105239813981</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1610.105239813981</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296688</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.58875505237</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136267</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794326</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794326</v>
+        <v>2788.565186649822</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794326</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794326</v>
+        <v>2437.723170258544</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.667596818514</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064586</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.8580214762837</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="C10" t="n">
-        <v>604.8580214762837</v>
+        <v>775.7875500159902</v>
       </c>
       <c r="D10" t="n">
-        <v>604.8580214762837</v>
+        <v>625.6709106036544</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4957,22 +4959,22 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218345</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672848</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V10" t="n">
-        <v>1101.990851592604</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.990851592604</v>
+        <v>1224.569680057538</v>
       </c>
       <c r="X10" t="n">
-        <v>1007.299065450054</v>
+        <v>996.5801291595203</v>
       </c>
       <c r="Y10" t="n">
-        <v>786.5064863065235</v>
+        <v>775.7875500159902</v>
       </c>
     </row>
     <row r="11">
@@ -5030,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,10 +5114,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
         <v>243.4633055756266</v>
@@ -5124,16 +5126,16 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096656</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M12" t="n">
         <v>1268.578514636218</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
         <v>2319.799627685893</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>781.3544215660705</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>612.4182386381636</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578601</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W13" t="n">
-        <v>1411.785016437858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X13" t="n">
-        <v>1183.79546553984</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y13" t="n">
-        <v>963.0028863963103</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>738.7889117913851</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>1963.765362972543</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>847.644273983533</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711973</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5497,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5513,19 +5515,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5549,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,25 +5591,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913853</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972544</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>2515.675093211831</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5695,25 +5697,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1701.665648661974</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1412.248478625014</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>1184.258927726996</v>
       </c>
       <c r="Y19" t="n">
         <v>963.4663485834661</v>
@@ -5732,55 +5734,55 @@
         <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466572</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3342.537229081859</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="C22" t="n">
-        <v>3173.601046153952</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>3023.484406741616</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>2875.571313159223</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661313</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.964043787807</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>4357.362578810748</v>
+        <v>2169.539922596168</v>
       </c>
       <c r="U22" t="n">
-        <v>4068.287352154946</v>
+        <v>1880.464695940366</v>
       </c>
       <c r="V22" t="n">
-        <v>3813.602863949059</v>
+        <v>1625.780207734479</v>
       </c>
       <c r="W22" t="n">
-        <v>3524.185693912098</v>
+        <v>1336.363037697518</v>
       </c>
       <c r="X22" t="n">
-        <v>3524.185693912098</v>
+        <v>1108.373486799501</v>
       </c>
       <c r="Y22" t="n">
-        <v>3524.185693912098</v>
+        <v>887.5809076559709</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5980,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.3409563819251</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6075,16 +6077,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>662.1522880254209</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>493.2161050975141</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>343.0994656851783</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2264.108249235165</v>
+        <v>2237.774446768175</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2018.172981791116</v>
       </c>
       <c r="U25" t="n">
-        <v>1755.431557602304</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.000052934169</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W25" t="n">
-        <v>1292.582882897208</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1064.593331999191</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>843.8007528556607</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961526</v>
+        <v>671.2000270096659</v>
       </c>
       <c r="M27" t="n">
-        <v>1337.934786622704</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
         <v>2319.799627685893</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>741.8431516380926</v>
+        <v>916.3099000622261</v>
       </c>
       <c r="C28" t="n">
-        <v>572.9069687101858</v>
+        <v>747.3737171343192</v>
       </c>
       <c r="D28" t="n">
-        <v>422.79032929785</v>
+        <v>597.2570777219835</v>
       </c>
       <c r="E28" t="n">
-        <v>322.7933138979686</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F28" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487571</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510512</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.38585385471</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648823</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611863</v>
+        <v>1546.740494934013</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611863</v>
+        <v>1318.750944035996</v>
       </c>
       <c r="Y28" t="n">
-        <v>923.4916164683324</v>
+        <v>1097.958364892466</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,40 +6475,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>716.6687843969303</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>716.6687843969303</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951537</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190824</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>343.0994656851783</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1790.525374274249</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1501.108204237289</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1501.108204237289</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6689,58 +6691,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797184</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075789</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6762,37 +6764,37 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2757.723669558406</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C34" t="n">
-        <v>2588.787486630499</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D34" t="n">
-        <v>2438.670847218163</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E34" t="n">
-        <v>2337.686731866305</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F34" t="n">
-        <v>2337.686731866305</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.686731866305</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>3160.164713532175</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y34" t="n">
-        <v>2939.372134388645</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="35">
@@ -6917,10 +6919,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
@@ -6929,22 +6931,22 @@
         <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7011,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>221.3431781811715</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>221.3431781811715</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>716.6687843969303</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1344.266747951537</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190824</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7160,52 +7162,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852259</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398597</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492582</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474787</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V38" t="n">
         <v>3820.749612123003</v>
@@ -7245,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="K39" t="n">
-        <v>352.5519571452613</v>
+        <v>427.7414352191927</v>
       </c>
       <c r="L39" t="n">
-        <v>352.5519571452613</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718132</v>
+        <v>716.6687843969296</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>721.7774158311364</v>
+        <v>580.8993044876856</v>
       </c>
       <c r="C40" t="n">
-        <v>552.8412329032295</v>
+        <v>411.9631215597788</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.846482147443</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650499</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650499</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>113.9333885650499</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797194</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038346</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570834</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279819</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853378</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580277</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580277</v>
       </c>
       <c r="S40" t="n">
-        <v>2404.986360578632</v>
+        <v>2264.108249235182</v>
       </c>
       <c r="T40" t="n">
-        <v>2185.384895601573</v>
+        <v>2044.506784258123</v>
       </c>
       <c r="U40" t="n">
-        <v>1896.309668945771</v>
+        <v>1755.43155760232</v>
       </c>
       <c r="V40" t="n">
-        <v>1641.625180739884</v>
+        <v>1500.747069396434</v>
       </c>
       <c r="W40" t="n">
-        <v>1352.208010702924</v>
+        <v>1211.329899359473</v>
       </c>
       <c r="X40" t="n">
-        <v>1124.218459804906</v>
+        <v>983.3403484614555</v>
       </c>
       <c r="Y40" t="n">
-        <v>903.4258806613761</v>
+        <v>762.5477693179254</v>
       </c>
     </row>
     <row r="41">
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192275</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111685</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075781</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7488,28 +7490,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>484.8243144841094</v>
+        <v>244.2098454714559</v>
       </c>
       <c r="L42" t="n">
-        <v>980.1499206998682</v>
+        <v>739.535451687215</v>
       </c>
       <c r="M42" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.913939313767</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868374</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>951.7772127656083</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>782.8410298377014</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253656</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429725</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429725</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578525</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000582</v>
@@ -7573,46 +7575,46 @@
         <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N43" t="n">
         <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603202</v>
+        <v>2415.384692536045</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.2863919474</v>
+        <v>2126.309465880243</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741513</v>
+        <v>1871.624977674356</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704552</v>
+        <v>1582.207807637395</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806535</v>
+        <v>1354.218256739378</v>
       </c>
       <c r="Y43" t="n">
-        <v>1098.667160263526</v>
+        <v>1133.425677595848</v>
       </c>
     </row>
     <row r="44">
@@ -7640,19 +7642,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273905</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397185</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>2149.810879820877</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>560.7825789706076</v>
+        <v>699.2677182139842</v>
       </c>
       <c r="C46" t="n">
-        <v>391.8463960427007</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="D46" t="n">
-        <v>241.729756630365</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E46" t="n">
-        <v>93.81666304797187</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7830,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2426.846358063199</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S46" t="n">
-        <v>2243.991523718104</v>
+        <v>2382.47666296148</v>
       </c>
       <c r="T46" t="n">
-        <v>2024.390058741045</v>
+        <v>2162.875197984421</v>
       </c>
       <c r="U46" t="n">
-        <v>1735.314832085242</v>
+        <v>1873.799971328619</v>
       </c>
       <c r="V46" t="n">
-        <v>1480.630343879355</v>
+        <v>1619.115483122732</v>
       </c>
       <c r="W46" t="n">
-        <v>1191.213173842395</v>
+        <v>1329.698313085771</v>
       </c>
       <c r="X46" t="n">
-        <v>963.2236229443774</v>
+        <v>1101.708762187754</v>
       </c>
       <c r="Y46" t="n">
-        <v>742.4310438008473</v>
+        <v>880.9161830442239</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>65.54986409393101</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>264.8258126177387</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>98.08864825591516</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23935,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>84.25835418137859</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>198.909393472902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24190,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>40.30478226780122</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>80.44045370237396</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>47.43691740068661</v>
+        <v>35.11263957635599</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24664,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24841,19 +24843,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>144.6341900408526</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24892,16 +24894,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>67.07129414993165</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.45968844822997</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25138,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>74.83129810813924</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25312,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25375,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>38.59775584152683</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.3791545843167</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S40" t="n">
-        <v>139.4693302300322</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,7 +25785,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25795,7 +25797,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>186.1428431935135</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>151.7319110345161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856552</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>46.45968844823058</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>117.1847295890511</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397652</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397653</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397655</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397655</v>
       </c>
     </row>
     <row r="16">
@@ -26311,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="C2" t="n">
+        <v>574729.2389049986</v>
+      </c>
+      <c r="D2" t="n">
         <v>574729.2389049985</v>
       </c>
-      <c r="C2" t="n">
-        <v>574729.2389049984</v>
-      </c>
-      <c r="D2" t="n">
-        <v>574729.2389049988</v>
-      </c>
       <c r="E2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="H2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830042</v>
       </c>
       <c r="I2" t="n">
         <v>565002.6197830045</v>
@@ -26338,22 +26340,22 @@
         <v>565002.6197830045</v>
       </c>
       <c r="K2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="L2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="M2" t="n">
-        <v>565002.6197830047</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830045</v>
+        <v>565002.6197830049</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830046</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.246394276677165e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,19 +26389,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972776</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.200846139448641e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551172</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>4.708776941697579e-10</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319391</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.842883194</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319394</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184271</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184284</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184283</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184277</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184285</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26503,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671817</v>
+        <v>-954743.2902671813</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604115</v>
+        <v>374001.4554604114</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604115</v>
+        <v>374001.4554604112</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398997</v>
+        <v>124860.8200398992</v>
       </c>
       <c r="F6" t="n">
         <v>450273.2818472548</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472547</v>
+        <v>450273.2818472545</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472548</v>
+        <v>450273.2818472543</v>
       </c>
       <c r="I6" t="n">
         <v>450273.2818472547</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.079449977</v>
+        <v>232742.0794499772</v>
       </c>
       <c r="K6" t="n">
         <v>450273.2818472547</v>
       </c>
       <c r="L6" t="n">
+        <v>450273.2818472545</v>
+      </c>
+      <c r="M6" t="n">
+        <v>365218.2539117424</v>
+      </c>
+      <c r="N6" t="n">
+        <v>450273.2818472544</v>
+      </c>
+      <c r="O6" t="n">
         <v>450273.2818472547</v>
       </c>
-      <c r="M6" t="n">
-        <v>365218.2539117432</v>
-      </c>
-      <c r="N6" t="n">
-        <v>450273.2818472547</v>
-      </c>
-      <c r="O6" t="n">
-        <v>450273.2818472545</v>
-      </c>
       <c r="P6" t="n">
-        <v>450273.2818472545</v>
+        <v>450273.2818472551</v>
       </c>
     </row>
   </sheetData>
@@ -26710,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26811,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26932,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26993,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022933</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27169,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022931</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27382,7 +27384,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27394,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>218.7709634944079</v>
       </c>
       <c r="Y2" t="n">
-        <v>228.2019783486356</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27597,13 +27599,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>115.0119116157673</v>
+        <v>82.150531898888</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>189.5856591321305</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27667,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27679,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>35.3164906584945</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>65.78002970514368</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>49.41044769072057</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,25 +27824,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>7.755643479693788</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>1.907372490047919</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>252.2809969173846</v>
       </c>
       <c r="X10" t="n">
-        <v>131.964787107912</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28381,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28804,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29736,7 +29738,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>7.593235363595015e-12</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29797,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>1.168883636114776e-12</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="33">
@@ -29983,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30034,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30046,13 +30048,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>6.501057674310801e-14</v>
       </c>
     </row>
     <row r="36">
@@ -30277,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.75589363729684e-12</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30414,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>1.570005428346059e-11</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30633,7 +30635,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>7.593235363595015e-12</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003813</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781692</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970252</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098821</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31513,7 +31515,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31524,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31676,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31750,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31762,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31829,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31841,37 +31843,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897919</v>
+        <v>233.3139244897921</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31938,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>502.226814861969</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>513.0745614164389</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32330,7 +32332,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32467,7 +32469,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32558,19 +32560,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>641.2555750770852</v>
       </c>
       <c r="O21" t="n">
-        <v>369.1789913099997</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>468.3778278510275</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33026,37 +33028,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>231.5286848890172</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>137.7376326175077</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,13 +33253,13 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33266,34 +33268,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>614.7544723218302</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>337.5641188593843</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>472.97362791687</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33524,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>253.8670488165984</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S38" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,43 +33964,43 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>246.2467565146292</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>430.4001870301135</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
@@ -34041,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H40" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796262</v>
@@ -34056,31 +34058,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U40" t="n">
         <v>0.1345549672467222</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067199</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S41" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,43 +34201,43 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>381.6404378718164</v>
+        <v>289.7537444526257</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
@@ -34278,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H43" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J43" t="n">
         <v>174.4056633796262</v>
@@ -34293,31 +34295,31 @@
         <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q43" t="n">
         <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U43" t="n">
         <v>0.1345549672467222</v>
@@ -34363,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34444,10 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422586</v>
@@ -34457,19 +34459,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717711</v>
       </c>
       <c r="O45" t="n">
-        <v>549.9198891312099</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742439</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554007</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923324</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882195</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193721</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037197</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222489</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597719</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306628</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,22 +35494,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991771</v>
+        <v>94.75954470991793</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>359.6305704175246</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>374.5201816365647</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35978,7 +35980,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36206,19 +36208,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="O21" t="n">
-        <v>226.5827468655553</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,22 +36442,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>334.4034204366973</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>92.97430510914305</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>6.395920534174421</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36914,25 +36916,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>476.2000925419561</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367765</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,19 +37153,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>199.0097390795101</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>330.3773834724256</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>127.0294221499317</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>108.4053175402702</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>291.8458072502393</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K40" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899233</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.53969023631402</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>243.7989988974574</v>
+        <v>151.9123054782667</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K43" t="n">
         <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P43" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38011,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38107,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>191.3582339884378</v>
       </c>
       <c r="O45" t="n">
-        <v>407.3236446867654</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1962170.553332074</v>
+        <v>1958157.943318081</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283165</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>166.3559487480915</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>150.9601371840612</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.817218682477</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -822,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>82.70057996958532</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>143.5591234901491</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>166.9920602376546</v>
       </c>
       <c r="D5" t="n">
-        <v>165.0973824885525</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,13 +1065,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>100.2457785538845</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>38.81718992773092</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1119,7 +1119,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>177.2979137777563</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>347.3335962273651</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>71.67037196991615</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>34.24200141920641</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1530,7 +1530,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.8253826161906772</v>
+        <v>27.77749086859501</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722605</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1773,7 +1773,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>20.43112068613158</v>
+        <v>27.77749086859484</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.6965697803346</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>167.8792891424494</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2250,16 +2250,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>137.521397957954</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>93.62264337260652</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7215037338434</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,10 +2535,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2715,13 +2715,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>111.3213230702132</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2955,13 +2955,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>185.0663491738964</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520872</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,16 +3028,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>150.8783572808979</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3265,19 +3265,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>409.8033385187866</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695524</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805175844</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>187.1118995475103</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881311</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>19.91555826190716</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462163</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>31.26260713377474</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>63.84155641259345</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1811.579746109087</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1442.617229168676</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1084.351530561925</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>698.5632779636808</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>691.6177772144773</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>276.5453270594738</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V2" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="W2" t="n">
-        <v>2884.252265792694</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>2588.318918149021</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>2198.179586173209</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1731.085250062422</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C4" t="n">
-        <v>1562.149067134515</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D4" t="n">
-        <v>1562.149067134515</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E4" t="n">
-        <v>1562.149067134515</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F4" t="n">
-        <v>1562.149067134515</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>1562.149067134515</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="T4" t="n">
-        <v>2822.32286476305</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="U4" t="n">
-        <v>2533.219997888694</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="V4" t="n">
-        <v>2278.535509682807</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W4" t="n">
-        <v>2278.535509682807</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X4" t="n">
-        <v>2133.526294036192</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y4" t="n">
-        <v>1912.733714892662</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1767.87852028569</v>
+        <v>2144.883770458457</v>
       </c>
       <c r="C5" t="n">
-        <v>1398.916003345278</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792696</v>
+        <v>2884.252265792693</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522581</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="X5" t="n">
-        <v>2158.017852261502</v>
+        <v>2531.483610522579</v>
       </c>
       <c r="Y5" t="n">
-        <v>1767.87852028569</v>
+        <v>2531.483610522579</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2033.047668051139</v>
+        <v>718.3439163053874</v>
       </c>
       <c r="C7" t="n">
-        <v>1864.111485123232</v>
+        <v>718.3439163053874</v>
       </c>
       <c r="D7" t="n">
-        <v>1713.994845710896</v>
+        <v>568.2272768930517</v>
       </c>
       <c r="E7" t="n">
-        <v>1566.081752128503</v>
+        <v>420.3141833106586</v>
       </c>
       <c r="F7" t="n">
-        <v>1566.081752128503</v>
+        <v>273.4242358127482</v>
       </c>
       <c r="G7" t="n">
-        <v>1464.823389952862</v>
+        <v>105.7213991874671</v>
       </c>
       <c r="H7" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>1464.823389952862</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>1509.946022399798</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>1713.933205348674</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>2030.49300379717</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>2374.650049396719</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
-        <v>2716.058426102584</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>3015.388025022997</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>3247.995525456657</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>3325.605821609171</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>3235.775364366699</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>3014.008748936225</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>2724.905882061869</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="V7" t="n">
-        <v>2724.905882061869</v>
+        <v>1638.191681214135</v>
       </c>
       <c r="W7" t="n">
-        <v>2435.488712024908</v>
+        <v>1348.774511177175</v>
       </c>
       <c r="X7" t="n">
-        <v>2435.488712024908</v>
+        <v>1120.784960279157</v>
       </c>
       <c r="Y7" t="n">
-        <v>2214.696132881378</v>
+        <v>899.9923811356272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.66971909763</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490879</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926352</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030276</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>287.5978169884282</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2788.565186649822</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="W8" t="n">
-        <v>2437.723170258544</v>
+        <v>2972.837166339055</v>
       </c>
       <c r="X8" t="n">
-        <v>2437.723170258544</v>
+        <v>2599.371408077975</v>
       </c>
       <c r="Y8" t="n">
-        <v>2047.583838282732</v>
+        <v>2209.232076102163</v>
       </c>
     </row>
     <row r="9">
@@ -4859,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>775.7875500159902</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C10" t="n">
-        <v>775.7875500159902</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>625.6709106036544</v>
+        <v>361.3151575124868</v>
       </c>
       <c r="E10" t="n">
-        <v>477.7578170212613</v>
+        <v>213.4020639300937</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W10" t="n">
-        <v>1224.569680057538</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X10" t="n">
-        <v>996.5801291595203</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y10" t="n">
-        <v>775.7875500159902</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="11">
@@ -5032,28 +5032,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.0655846733346</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C13" t="n">
-        <v>411.1294017454277</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.129363765926</v>
+        <v>2418.905011995821</v>
       </c>
       <c r="S13" t="n">
-        <v>2263.274529420831</v>
+        <v>2236.050177650725</v>
       </c>
       <c r="T13" t="n">
-        <v>2043.673064443772</v>
+        <v>2016.448712673667</v>
       </c>
       <c r="U13" t="n">
-        <v>1754.597837787969</v>
+        <v>1727.373486017864</v>
       </c>
       <c r="V13" t="n">
-        <v>1499.913349582082</v>
+        <v>1472.688997811978</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.496179545122</v>
+        <v>1183.271827775017</v>
       </c>
       <c r="X13" t="n">
-        <v>982.5066286471044</v>
+        <v>955.2822768769995</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.7140495035743</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5269,61 +5269,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913851</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972543</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>513.8536007400712</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D16" t="n">
-        <v>363.7369613277355</v>
+        <v>430.7826650753331</v>
       </c>
       <c r="E16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,34 +5491,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5530,37 +5530,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5600,16 +5600,16 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>781.8178837532264</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532264</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V19" t="n">
-        <v>1701.665648661974</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W19" t="n">
-        <v>1412.248478625014</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X19" t="n">
-        <v>1184.258927726996</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y19" t="n">
-        <v>963.4663485834661</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5743,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>705.9324428257312</v>
+        <v>923.4916164683283</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>754.5554335404214</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>604.4387941280856</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>456.5257005456925</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1108.373486799501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y22" t="n">
-        <v>887.5809076559709</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6065,28 +6065,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6174,25 +6174,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2237.774446768175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.172981791116</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.097755135313</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>916.3099000622261</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>747.3737171343192</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>597.2570777219835</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>251.562654109227</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>746.8882603249857</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2515.675093211831</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6651,22 +6651,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510508</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1790.525374274249</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1501.108204237289</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237289</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797184</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075789</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398592</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492576</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474782</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6767,34 +6767,34 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797183</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1174.766565373399</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1802.364528928006</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,37 +6834,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>809.0422355233313</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>640.1060525954244</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000582</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797183</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
@@ -6888,22 +6888,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1211.483279497101</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>990.6907003535711</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6919,28 +6919,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6958,7 +6958,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>552.8412329032296</v>
+        <v>513.8536007400685</v>
       </c>
       <c r="C37" t="n">
-        <v>552.8412329032296</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121616</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782927</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038313</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797714</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510506</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611856</v>
       </c>
       <c r="X37" t="n">
-        <v>955.2822768769995</v>
+        <v>916.2946447138384</v>
       </c>
       <c r="Y37" t="n">
-        <v>734.4896977334694</v>
+        <v>695.5020655703082</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7162,61 +7162,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075814</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398597</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492582</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474787</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,31 +7247,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797194</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797194</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191927</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969296</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969296</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876856</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597788</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>261.846482147443</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>113.9333885650499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>113.9333885650499</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>113.9333885650499</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570834</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279819</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853378</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580277</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580277</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235182</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258123</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.43155760232</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396434</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359473</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614555</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179254</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192275</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111685</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075781</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>244.2098454714559</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>739.535451687215</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.913939313767</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1964.511902868374</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>951.7772127656083</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>782.8410298377014</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>632.7243904253656</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429725</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578525</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580262</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2415.384692536045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2126.309465880243</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.624977674356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.207807637395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.218256739378</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1133.425677595848</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7645,25 +7645,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1859.536823237711</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>699.2677182139842</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>530.3315352860773</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D46" t="n">
-        <v>530.3315352860773</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E46" t="n">
-        <v>382.4184417036842</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2382.47666296148</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2162.875197984421</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1873.799971328619</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1619.115483122732</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1329.698313085771</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1101.708762187754</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>880.9161830442239</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23433,7 +23433,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>65.54986409393101</v>
+        <v>38.59775584152668</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1.307398633798584e-12</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23661,7 +23661,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0028419604376</v>
+        <v>118.6564717779743</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.70888054695368</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>84.25835418137859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24138,16 +24138,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>7.899650064977237</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.30478226780122</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,10 +24423,10 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24603,13 +24603,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>35.11263957635599</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,19 +24891,19 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.07129414993165</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>74.83129810813924</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>138.4949402405104</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>38.59775584152683</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.3791545843167</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012163</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012163</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>186.1428431935135</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>117.1847295890511</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>860312.7529397653</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>860312.7529397655</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>860312.7529397655</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049986</v>
+        <v>574729.2389049985</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="F2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="G2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="H2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="H2" t="n">
-        <v>565002.6197830042</v>
-      </c>
       <c r="I2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="J2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="J2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="K2" t="n">
-        <v>565002.6197830046</v>
-      </c>
       <c r="L2" t="n">
-        <v>565002.6197830043</v>
+        <v>565002.6197830044</v>
       </c>
       <c r="M2" t="n">
         <v>565002.6197830043</v>
       </c>
       <c r="N2" t="n">
-        <v>565002.6197830049</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="O2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="P2" t="n">
-        <v>565002.6197830046</v>
+        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.246394276677165e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26392,16 +26392,16 @@
         <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551196</v>
+        <v>85055.02793551187</v>
       </c>
       <c r="N3" t="n">
-        <v>4.708776941697579e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319416</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319411</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184284</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="H4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="H4" t="n">
-        <v>13606.80811184281</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184283</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184277</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184285</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26505,7 +26505,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="N5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671813</v>
+        <v>-954743.2902671811</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604114</v>
+        <v>374001.4554604112</v>
       </c>
       <c r="D6" t="n">
-        <v>374001.4554604112</v>
+        <v>374001.4554604111</v>
       </c>
       <c r="E6" t="n">
-        <v>124860.8200398992</v>
+        <v>124513.440785542</v>
       </c>
       <c r="F6" t="n">
-        <v>450273.2818472548</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="G6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928975</v>
       </c>
       <c r="H6" t="n">
-        <v>450273.2818472543</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="I6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="J6" t="n">
-        <v>232742.0794499772</v>
+        <v>232394.7001956203</v>
       </c>
       <c r="K6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="L6" t="n">
-        <v>450273.2818472545</v>
+        <v>449925.9025928976</v>
       </c>
       <c r="M6" t="n">
-        <v>365218.2539117424</v>
+        <v>364870.8746573856</v>
       </c>
       <c r="N6" t="n">
-        <v>450273.2818472544</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="O6" t="n">
-        <v>450273.2818472547</v>
+        <v>449925.9025928977</v>
       </c>
       <c r="P6" t="n">
-        <v>450273.2818472551</v>
+        <v>449925.9025928976</v>
       </c>
     </row>
   </sheetData>
@@ -26712,19 +26712,19 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26825,7 +26825,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26934,7 +26934,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26995,7 +26995,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>128.2518156392291</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>218.7709634944079</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>6.231572700462053</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>82.150531898888</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>198.2808315333529</v>
       </c>
       <c r="D5" t="n">
-        <v>189.5856591321305</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27681,10 +27681,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>65.78002970514368</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>105.9378249865899</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>117.3098506095642</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>1.907372490047919</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28022,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>147.878577306253</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -28073,7 +28073,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>252.2809969173846</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28383,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28806,7 +28806,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29738,7 +29738,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>7.593235363595015e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>1.168883636114776e-12</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30048,13 +30048,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.641806938159438e-12</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30279,7 +30279,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>-1.75589363729684e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1.570005428346059e-11</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30635,7 +30635,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>7.593235363595015e-12</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987499</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31846,7 +31846,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>233.3139244897921</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31855,13 +31855,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,40 +32074,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>502.226814861969</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32320,19 +32320,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>513.0745614164389</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,16 +32560,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>641.2555750770852</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32797,19 +32797,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>202.2352659288688</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>231.5286848890172</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,13 +33040,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>144.237359508534</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,19 +33274,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>134.7284881171895</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33417,7 +33417,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33505,7 +33505,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33514,10 +33514,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>472.97362791687</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33748,19 +33748,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422588</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>430.4001870301135</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485292</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067199</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162565</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>289.7537444526257</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473075</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34234,16 +34234,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>322.6999460717711</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127284</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,7 +35494,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>94.75954470991793</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35503,13 +35503,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>359.6305704175246</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35968,19 +35968,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>374.5201816365647</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,16 +36208,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>509.9138629937518</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36445,19 +36445,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>68.26085851453861</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>92.97430510914305</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,13 +36688,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>6.395920534175052</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,19 +36922,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0.7540807028592577</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,7 +37065,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,7 +37153,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37162,10 +37162,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>330.3773834724256</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37396,19 +37396,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295035</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678998</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>291.8458072502393</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899233</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.53969023631402</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>151.9123054782667</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674334</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37882,7 +37882,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789219</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,25 +37937,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q43" t="n">
         <v>120.4022572998984</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,25 +38101,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>191.3582339884378</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_21_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1958157.943318081</v>
+        <v>1959918.473620866</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>166.3559487480915</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>282.6988068886408</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734084892</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>82.70057996958532</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471489</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -898,7 +898,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>166.9920602376546</v>
+        <v>166.9920602376567</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -916,7 +916,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>38.81718992773092</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>72.89138480951671</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>177.2979137777563</v>
+        <v>17.35112070699511</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>71.67037196991615</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>27.77749086859501</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>151.3113851298087</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1615,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1663,7 +1663,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,22 +1767,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>123.9815576456779</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>27.77749086859484</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>177.6965697803346</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>74.56474874233434</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2134,7 +2134,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>137.521397957954</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.702514956955</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2715,7 +2715,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>27.02919805175844</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3793,7 +3793,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
         <v>250.9057009881286</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>101.6969570046971</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>180.9172429496413</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1811.579746109087</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C2" t="n">
-        <v>1442.617229168676</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D2" t="n">
-        <v>1084.351530561925</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E2" t="n">
-        <v>698.5632779636808</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>691.6177772144773</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>276.5453270594738</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001388</v>
@@ -4345,37 +4345,37 @@
         <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2961.7846764101</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2961.7846764101</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X2" t="n">
-        <v>2588.318918149021</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y2" t="n">
-        <v>2198.179586173209</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="3">
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4424,7 +4424,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
         <v>2407.41198488674</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>923.9108438165264</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>754.9746608886195</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8580214762837</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>456.9449278938906</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
         <v>310.0549803959803</v>
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,46 +4494,46 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S4" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T4" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U4" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V4" t="n">
-        <v>1843.758608725274</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="W4" t="n">
-        <v>1554.341438688313</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>1326.351887790296</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1105.559308646766</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2144.883770458457</v>
+        <v>2144.883770458459</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4552,67 +4552,67 @@
         <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528559</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389512</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839476</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2884.252265792693</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W5" t="n">
-        <v>2531.483610522579</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="X5" t="n">
-        <v>2531.483610522579</v>
+        <v>2531.483610522581</v>
       </c>
       <c r="Y5" t="n">
-        <v>2531.483610522579</v>
+        <v>2531.483610522581</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>718.3439163053874</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C7" t="n">
-        <v>718.3439163053874</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>568.2272768930517</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>420.3141833106586</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>273.4242358127482</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>105.7213991874671</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214135</v>
+        <v>1853.666886664739</v>
       </c>
       <c r="V7" t="n">
-        <v>1638.191681214135</v>
+        <v>1598.982398458852</v>
       </c>
       <c r="W7" t="n">
-        <v>1348.774511177175</v>
+        <v>1309.565228421891</v>
       </c>
       <c r="X7" t="n">
-        <v>1120.784960279157</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y7" t="n">
-        <v>899.9923811356272</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1822.632236038042</v>
+        <v>2065.110222835252</v>
       </c>
       <c r="C8" t="n">
-        <v>1453.66971909763</v>
+        <v>1696.147705894841</v>
       </c>
       <c r="D8" t="n">
-        <v>1095.404020490879</v>
+        <v>1337.88200728809</v>
       </c>
       <c r="E8" t="n">
-        <v>709.6157678926352</v>
+        <v>952.093754689846</v>
       </c>
       <c r="F8" t="n">
-        <v>298.6298631030276</v>
+        <v>541.1078499002385</v>
       </c>
       <c r="G8" t="n">
-        <v>287.5978169884282</v>
+        <v>126.035399745235</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609169</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339055</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077975</v>
+        <v>2841.849394875186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2209.232076102163</v>
+        <v>2451.710062899374</v>
       </c>
     </row>
     <row r="9">
@@ -4874,22 +4874,22 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4898,10 +4898,10 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410637</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4944,55 +4944,55 @@
         <v>511.4317969248226</v>
       </c>
       <c r="D10" t="n">
-        <v>361.3151575124868</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>213.4020639300937</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1854.900232967364</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
         <v>1854.900232967364</v>
@@ -5041,19 +5041,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>552.8412329032296</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C13" t="n">
-        <v>552.8412329032296</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E13" t="n">
         <v>402.7245934908939</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2418.905011995821</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2236.050177650725</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2016.448712673667</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U13" t="n">
-        <v>1727.373486017864</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V13" t="n">
-        <v>1472.688997811978</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W13" t="n">
-        <v>1183.271827775017</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X13" t="n">
-        <v>955.2822768769995</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y13" t="n">
-        <v>734.4896977334694</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="14">
@@ -5254,13 +5254,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
         <v>1204.759558406469</v>
@@ -5272,10 +5272,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5299,31 +5299,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>580.8993044876688</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D16" t="n">
-        <v>430.7826650753331</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,10 +5588,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803937</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832228</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>634.9279362553159</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429802</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429802</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2267.47159895366</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1978.396372297858</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1723.711884091971</v>
+        <v>1613.067925832146</v>
       </c>
       <c r="W19" t="n">
-        <v>1434.29471405501</v>
+        <v>1323.650755795185</v>
       </c>
       <c r="X19" t="n">
-        <v>1206.305163156993</v>
+        <v>1095.661204897168</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134625</v>
+        <v>874.8686257536381</v>
       </c>
     </row>
     <row r="20">
@@ -5743,28 +5743,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5773,13 +5773,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>923.4916164683283</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>754.5554335404214</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D22" t="n">
-        <v>604.4387941280856</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E22" t="n">
-        <v>456.5257005456925</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>1144.284195611858</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>923.4916164683283</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075793</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,10 +6062,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803937</v>
@@ -6126,25 +6126,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6259,19 +6259,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6363,19 +6363,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6460,13 +6460,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6478,7 +6478,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6545,22 +6545,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6645,10 +6645,10 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
         <v>2035.268256189238</v>
@@ -6697,7 +6697,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.192580311172</v>
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6952,13 +6952,13 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7010,10 +7010,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
         <v>245.2306927803937</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400685</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121616</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782927</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038313</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797714</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910806</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570814</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279799</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853358</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580258</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.91737983266</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487564</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854703</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648816</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611856</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138384</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703082</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111715</v>
@@ -7183,10 +7183,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7551,16 +7551,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7639,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>411.1294017454277</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>261.0127623330919</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
         <v>261.0127623330919</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.388111847688833e-12</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>38.59775584152668</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>134.8730892594354</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23655,22 +23655,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>118.6564717779743</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>39.70888054695368</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>177.5728945814936</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>7.899650064977237</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24603,7 +24603,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -24612,13 +24612,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25092,7 +25092,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>138.4949402405104</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>65.54986409393075</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>105.2672314396028</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.7529397649</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>860312.7529397652</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>860312.7529397651</v>
+        <v>860312.752939765</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>860312.752939765</v>
+        <v>860312.7529397651</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>574729.2389049985</v>
+        <v>574729.2389049983</v>
       </c>
       <c r="C2" t="n">
         <v>574729.2389049986</v>
@@ -26322,40 +26322,40 @@
         <v>574729.2389049985</v>
       </c>
       <c r="E2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830045</v>
       </c>
       <c r="F2" t="n">
-        <v>565002.6197830044</v>
+        <v>565002.6197830043</v>
       </c>
       <c r="G2" t="n">
         <v>565002.6197830044</v>
       </c>
       <c r="H2" t="n">
+        <v>565002.6197830044</v>
+      </c>
+      <c r="I2" t="n">
         <v>565002.6197830045</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>565002.6197830046</v>
+      </c>
+      <c r="K2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="J2" t="n">
+      <c r="L2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="M2" t="n">
+        <v>565002.6197830045</v>
+      </c>
+      <c r="N2" t="n">
         <v>565002.6197830044</v>
       </c>
-      <c r="K2" t="n">
+      <c r="O2" t="n">
+        <v>565002.6197830043</v>
+      </c>
+      <c r="P2" t="n">
         <v>565002.6197830045</v>
-      </c>
-      <c r="L2" t="n">
-        <v>565002.6197830044</v>
-      </c>
-      <c r="M2" t="n">
-        <v>565002.6197830043</v>
-      </c>
-      <c r="N2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="O2" t="n">
-        <v>565002.6197830045</v>
-      </c>
-      <c r="P2" t="n">
-        <v>565002.6197830044</v>
       </c>
     </row>
     <row r="3">
@@ -26368,13 +26368,13 @@
         <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319416</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319411</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26432,7 +26432,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
@@ -26444,16 +26444,16 @@
         <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-954743.2902671811</v>
+        <v>-954743.2902671815</v>
       </c>
       <c r="C6" t="n">
-        <v>374001.4554604112</v>
+        <v>374001.455460411</v>
       </c>
       <c r="D6" t="n">
         <v>374001.4554604111</v>
       </c>
       <c r="E6" t="n">
-        <v>124513.440785542</v>
+        <v>124826.0821144638</v>
       </c>
       <c r="F6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.5439218187</v>
       </c>
       <c r="G6" t="n">
-        <v>449925.9025928975</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="H6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218189</v>
       </c>
       <c r="I6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.543921819</v>
       </c>
       <c r="J6" t="n">
-        <v>232394.7001956203</v>
+        <v>232707.3415245415</v>
       </c>
       <c r="K6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="L6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.543921819</v>
       </c>
       <c r="M6" t="n">
-        <v>364870.8746573856</v>
+        <v>365183.5159863072</v>
       </c>
       <c r="N6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218188</v>
       </c>
       <c r="O6" t="n">
-        <v>449925.9025928977</v>
+        <v>450238.5439218187</v>
       </c>
       <c r="P6" t="n">
-        <v>449925.9025928976</v>
+        <v>450238.543921819</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26962,13 +26962,13 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27390,13 +27390,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>128.2518156392291</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>66.54216182877224</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>6.231572700462053</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944209</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>198.2808315333529</v>
+        <v>198.2808315333509</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>105.9378249865899</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,10 +27830,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>213.3204533960962</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>117.3098506095642</v>
+        <v>277.2566436803253</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>147.878577306253</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>214.5414662356956</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28581,7 +28581,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30167,7 +30167,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.641806938159438e-12</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987499</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33180,7 +33180,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33207,7 +33207,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33265,7 +33265,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>144.237359508534</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33417,10 +33417,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33681,7 +33681,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
         <v>125.31755462929</v>
@@ -33918,7 +33918,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
         <v>125.31755462929</v>
@@ -34128,7 +34128,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34152,7 +34152,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127284</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36828,7 +36828,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -36855,7 +36855,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>6.395920534175052</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37065,10 +37065,10 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37329,7 +37329,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295035</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
         <v>264.3325884096349</v>
@@ -37566,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37776,7 +37776,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37800,7 +37800,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
